--- a/0093_assignment_02/power plant Indonesia.xlsx
+++ b/0093_assignment_02/power plant Indonesia.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ESDA_Code\0093_assignment_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jichu\ESDA_Code\0093_assignment_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0C6FF-BB3A-40F4-8E07-58A547D350E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C34608-F41C-42D1-B14B-90387DD2F1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="1980" windowWidth="23520" windowHeight="15420" xr2:uid="{3B43E072-FFD6-4405-AEFB-004A035C9779}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="23980" windowHeight="15260" xr2:uid="{3B43E072-FFD6-4405-AEFB-004A035C9779}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>plant</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Cirata Floating PV</t>
-  </si>
-  <si>
-    <t>Construction</t>
   </si>
   <si>
     <t>West Kalimantan</t>
@@ -794,15 +791,15 @@
   </sheetPr>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13.8984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="91.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.296875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
@@ -859,7 +856,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>107.3371709</v>
@@ -876,13 +873,13 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>109.354</v>
@@ -899,13 +896,13 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5">
         <v>104.7308</v>
@@ -922,13 +919,13 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3">
         <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4">
         <v>100.556787218938</v>
@@ -945,13 +942,13 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4">
         <v>105.220370085749</v>
@@ -968,13 +965,13 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>-8.4559999999999995</v>
@@ -991,13 +988,13 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" s="3">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4">
         <v>-8.3620999999999999</v>
@@ -1014,13 +1011,13 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4">
         <v>107.388731935773</v>
@@ -1037,7 +1034,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>100</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>100</v>
@@ -1083,13 +1080,13 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>1692</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4">
         <v>104.06310000000001</v>
@@ -1106,13 +1103,13 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>155</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1125,13 +1122,13 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>120.59820000000001</v>
@@ -1148,13 +1145,13 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8">
         <v>108.1781</v>
@@ -1171,13 +1168,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4">
         <v>109.57340000000001</v>
@@ -1194,13 +1191,13 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>50</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4">
         <v>112.238</v>
@@ -1215,15 +1212,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13.5">
+    <row r="19" spans="1:8" ht="13">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4">
         <v>117.74367838824099</v>
@@ -1238,15 +1235,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5">
+    <row r="20" spans="1:8" ht="13">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="8">
         <v>108.1781</v>
@@ -1261,15 +1258,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18">
+    <row r="21" spans="1:8" ht="14.5">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3">
         <v>9000</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="8">
         <v>117.8146</v>
@@ -1278,22 +1275,22 @@
         <v>2.6048</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" ht="13">
+      <c r="A22" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.5">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B22" s="3">
         <v>1040</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="8">
         <v>107.21729999999999</v>
@@ -1302,21 +1299,21 @@
         <v>-6.9458000000000002</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13">
+      <c r="A23" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.5">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="B23" s="3">
         <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="8">
         <v>100.0985</v>
@@ -1325,21 +1322,21 @@
         <v>-2.6766999999999999</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.5">
+      <c r="A24" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="B24" s="3">
         <v>150</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="8">
         <v>106.9177</v>
@@ -1348,22 +1345,22 @@
         <v>-6.9701000000000004</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" ht="13">
+      <c r="A25" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:8" ht="13.5">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B25" s="3">
         <v>180</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3">
         <v>99.259</v>
@@ -1372,21 +1369,21 @@
         <v>2.5112999999999999</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13">
+      <c r="A26" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.5">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B26" s="3">
         <v>126</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3">
         <v>119.60420000000001</v>
@@ -1395,21 +1392,21 @@
         <v>-3.1141000000000001</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3">
         <v>130</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="3">
         <v>121.357</v>
@@ -1418,21 +1415,21 @@
         <v>-2.5213000000000001</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3">
         <v>3.85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
         <v>107.5564</v>
@@ -1441,21 +1438,21 @@
         <v>-6.6246999999999998</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3">
         <v>92.8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3">
         <v>104.8051</v>
@@ -1464,21 +1461,21 @@
         <v>-4.9821999999999997</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3">
         <v>20.100000000000001</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="3">
         <v>119.5817</v>
@@ -1487,21 +1484,21 @@
         <v>-5.2778999999999998</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3">
         <v>19.2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
         <v>107.6186</v>
@@ -1510,21 +1507,21 @@
         <v>-6.9039000000000001</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3">
         <v>1008</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3">
         <v>107.36709999999999</v>
@@ -1533,21 +1530,21 @@
         <v>-6.7004000000000001</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="13">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3">
         <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="3">
         <v>107.7394</v>
@@ -1556,21 +1553,21 @@
         <v>-7.2172999999999998</v>
       </c>
       <c r="F33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13">
+      <c r="A34" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="13.5">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="B34" s="3">
         <v>215</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3">
         <v>107.7394</v>
@@ -1579,21 +1576,21 @@
         <v>-7.2172999999999998</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="13">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="3">
         <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3">
         <v>109.9119</v>
@@ -1602,21 +1599,21 @@
         <v>-7.2061000000000002</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="13">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3">
         <v>3.2</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3">
         <v>111.67149999999999</v>
@@ -1625,21 +1622,21 @@
         <v>-7.7201000000000004</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3">
         <v>2.7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3">
         <v>111.1317</v>
@@ -1648,21 +1645,21 @@
         <v>-8.1408000000000005</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13">
       <c r="A38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="3">
         <v>375</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3">
         <v>106.648</v>
@@ -1671,21 +1668,21 @@
         <v>-6.7416</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3">
         <v>186</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3">
         <v>107.389</v>
@@ -1694,21 +1691,21 @@
         <v>-6.5229999999999997</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="13">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="3">
         <v>140</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3">
         <v>107.45529999999999</v>
@@ -1717,21 +1714,21 @@
         <v>-6.4238999999999997</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13">
       <c r="A41" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3">
         <v>60</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3">
         <v>107.45529999999999</v>
@@ -1740,21 +1737,21 @@
         <v>-6.4238999999999997</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13">
       <c r="A42" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="3">
         <v>8.0399999999999991</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D42" s="3">
         <v>109.2778</v>
@@ -1763,21 +1760,21 @@
         <v>-7.5096999999999996</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" s="3">
         <v>1.117</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3">
         <v>110.79640000000001</v>
@@ -1786,21 +1783,21 @@
         <v>-7.0068999999999999</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13">
       <c r="A44" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B44" s="3">
         <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3">
         <v>100.8814</v>
@@ -1809,21 +1806,21 @@
         <v>0.29049999999999998</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="13">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="3">
         <v>18.899999999999999</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>107.6186</v>
@@ -1832,21 +1829,21 @@
         <v>-6.9039000000000001</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="3">
         <v>20</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="3">
         <v>124.83920000000001</v>
@@ -1855,21 +1852,21 @@
         <v>1.3346</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13">
       <c r="A47" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="3">
         <v>80</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3">
         <v>124.82250000000001</v>
@@ -1878,21 +1875,21 @@
         <v>1.2542</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="3">
         <v>19.559999999999999</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3">
         <v>107.6186</v>
@@ -1901,21 +1898,21 @@
         <v>-6.9039000000000001</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3">
         <v>165</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" s="3">
         <v>121.5783</v>
@@ -1924,21 +1921,21 @@
         <v>-2.8193999999999999</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="3">
         <v>82</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="3">
         <v>98.064999999999998</v>
@@ -1947,21 +1944,21 @@
         <v>3.0823999999999998</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3">
         <v>4.5</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D51" s="3">
         <v>112.21729999999999</v>
@@ -1970,21 +1967,21 @@
         <v>-8.1613000000000007</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3">
         <v>123</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3">
         <v>100.152</v>
@@ -1993,21 +1990,21 @@
         <v>-0.2923</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3">
         <v>23</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="3">
         <v>112.33159999999999</v>
@@ -2016,21 +2013,21 @@
         <v>-7.8540000000000001</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3">
         <v>215.47499999999999</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="3">
         <v>102.435</v>
@@ -2039,21 +2036,21 @@
         <v>-3.766</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13">
       <c r="A55" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3">
         <v>2.2000000000000002</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D55" s="3">
         <v>111.61669999999999</v>
@@ -2062,21 +2059,21 @@
         <v>-7.7891000000000004</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13">
       <c r="A56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3">
         <v>180.9</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" s="3">
         <v>109.6054</v>
@@ -2085,21 +2082,21 @@
         <v>-7.3926999999999996</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3">
         <v>1.4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" s="3">
         <v>109.8006</v>
@@ -2108,21 +2105,21 @@
         <v>-7.5693999999999999</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="3">
         <v>6.87</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D58" s="3">
         <v>107.6186</v>
@@ -2131,21 +2128,21 @@
         <v>-6.9039000000000001</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3">
         <v>30</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" s="3">
         <v>115.0074</v>
@@ -2154,21 +2151,21 @@
         <v>-3.5156000000000001</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13">
       <c r="A60" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3">
         <v>700.72</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D60" s="3">
         <v>107.3663</v>
@@ -2177,21 +2174,21 @@
         <v>-6.9126000000000003</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" s="3">
         <v>109.3331</v>
@@ -2200,21 +2197,21 @@
         <v>-7.4733000000000001</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="3">
         <v>29</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="3">
         <v>112.551</v>
@@ -2223,21 +2220,21 @@
         <v>-8.1763999999999992</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="3">
         <v>1.4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63" s="3">
         <v>110.26220000000001</v>
@@ -2246,21 +2243,21 @@
         <v>-7.4763999999999999</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="3">
         <v>286</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" s="3">
         <v>99.279300000000006</v>
@@ -2269,21 +2266,21 @@
         <v>2.5196000000000001</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13">
       <c r="A65" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" s="3">
         <v>175</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D65" s="3">
         <v>100.60339999999999</v>
@@ -2292,21 +2289,21 @@
         <v>-0.69089999999999996</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3">
         <v>50</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D66" s="3">
         <v>98.779200000000003</v>
@@ -2315,21 +2312,21 @@
         <v>1.7426999999999999</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="3">
         <v>105</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D67" s="3">
         <v>112.4443</v>
@@ -2338,21 +2335,21 @@
         <v>-8.1606000000000005</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="3">
         <v>317</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" s="3">
         <v>99.302800000000005</v>
@@ -2361,21 +2358,21 @@
         <v>2.5478999999999998</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3">
         <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" s="3">
         <v>110.40689999999999</v>
@@ -2384,21 +2381,21 @@
         <v>-6.9485000000000001</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="3">
         <v>36</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="3">
         <v>111.9025</v>
@@ -2407,21 +2404,21 @@
         <v>-8.0656999999999996</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13">
       <c r="A71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3">
         <v>18.36</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" s="3">
         <v>107.6186</v>
@@ -2430,21 +2427,21 @@
         <v>-6.9039000000000001</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="3">
         <v>110</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D72" s="3">
         <v>104.5733</v>
@@ -2453,21 +2450,21 @@
         <v>-5.3095999999999997</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3">
         <v>227</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D73" s="3">
         <v>107.6258</v>
@@ -2476,21 +2473,21 @@
         <v>-7.1966000000000001</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13">
       <c r="A74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="3">
         <v>54</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" s="3">
         <v>112.33110000000001</v>
@@ -2499,21 +2496,21 @@
         <v>-8.0776000000000003</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="13.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="3">
         <v>6.3</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" s="3">
         <v>112.2869</v>
@@ -2522,10 +2519,10 @@
         <v>-8.1135999999999999</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
